--- a/SampleExcel/Template.xlsx
+++ b/SampleExcel/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gyn/Documents/Zalo Received Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QuaySo\SampleExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1760C13-855D-104E-AC55-DEA993901203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B4DFE2-343E-40E3-9C22-09C66DD57F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19100" xr2:uid="{E66C60FF-8D5C-4CD2-B734-01935BFE3E6D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E66C60FF-8D5C-4CD2-B734-01935BFE3E6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="266">
   <si>
     <t>Mã dự thưởng</t>
   </si>
@@ -156,6 +156,684 @@
   </si>
   <si>
     <t>rtuytr</t>
+  </si>
+  <si>
+    <t>0023</t>
+  </si>
+  <si>
+    <t>0967433689</t>
+  </si>
+  <si>
+    <t>0024</t>
+  </si>
+  <si>
+    <t>0967433690</t>
+  </si>
+  <si>
+    <t>0025</t>
+  </si>
+  <si>
+    <t>0967433691</t>
+  </si>
+  <si>
+    <t>0026</t>
+  </si>
+  <si>
+    <t>0967433692</t>
+  </si>
+  <si>
+    <t>0027</t>
+  </si>
+  <si>
+    <t>0967433693</t>
+  </si>
+  <si>
+    <t>0028</t>
+  </si>
+  <si>
+    <t>0967433694</t>
+  </si>
+  <si>
+    <t>0029</t>
+  </si>
+  <si>
+    <t>0967433695</t>
+  </si>
+  <si>
+    <t>0030</t>
+  </si>
+  <si>
+    <t>0967433696</t>
+  </si>
+  <si>
+    <t>0031</t>
+  </si>
+  <si>
+    <t>0967433697</t>
+  </si>
+  <si>
+    <t>0032</t>
+  </si>
+  <si>
+    <t>0967433698</t>
+  </si>
+  <si>
+    <t>0033</t>
+  </si>
+  <si>
+    <t>0967433699</t>
+  </si>
+  <si>
+    <t>0034</t>
+  </si>
+  <si>
+    <t>0967433700</t>
+  </si>
+  <si>
+    <t>0035</t>
+  </si>
+  <si>
+    <t>0967433701</t>
+  </si>
+  <si>
+    <t>0036</t>
+  </si>
+  <si>
+    <t>0967433702</t>
+  </si>
+  <si>
+    <t>0037</t>
+  </si>
+  <si>
+    <t>0967433703</t>
+  </si>
+  <si>
+    <t>0038</t>
+  </si>
+  <si>
+    <t>0967433704</t>
+  </si>
+  <si>
+    <t>0039</t>
+  </si>
+  <si>
+    <t>0967433705</t>
+  </si>
+  <si>
+    <t>0040</t>
+  </si>
+  <si>
+    <t>0967433706</t>
+  </si>
+  <si>
+    <t>0041</t>
+  </si>
+  <si>
+    <t>0967433707</t>
+  </si>
+  <si>
+    <t>0042</t>
+  </si>
+  <si>
+    <t>0967433708</t>
+  </si>
+  <si>
+    <t>0043</t>
+  </si>
+  <si>
+    <t>0967433709</t>
+  </si>
+  <si>
+    <t>0044</t>
+  </si>
+  <si>
+    <t>0967433710</t>
+  </si>
+  <si>
+    <t>0045</t>
+  </si>
+  <si>
+    <t>0967433711</t>
+  </si>
+  <si>
+    <t>0046</t>
+  </si>
+  <si>
+    <t>0967433712</t>
+  </si>
+  <si>
+    <t>0047</t>
+  </si>
+  <si>
+    <t>0967433713</t>
+  </si>
+  <si>
+    <t>0048</t>
+  </si>
+  <si>
+    <t>0967433714</t>
+  </si>
+  <si>
+    <t>0049</t>
+  </si>
+  <si>
+    <t>0967433715</t>
+  </si>
+  <si>
+    <t>0050</t>
+  </si>
+  <si>
+    <t>0967433716</t>
+  </si>
+  <si>
+    <t>0051</t>
+  </si>
+  <si>
+    <t>0967433717</t>
+  </si>
+  <si>
+    <t>0052</t>
+  </si>
+  <si>
+    <t>0967433718</t>
+  </si>
+  <si>
+    <t>0053</t>
+  </si>
+  <si>
+    <t>0967433719</t>
+  </si>
+  <si>
+    <t>0054</t>
+  </si>
+  <si>
+    <t>0967433720</t>
+  </si>
+  <si>
+    <t>0055</t>
+  </si>
+  <si>
+    <t>0967433721</t>
+  </si>
+  <si>
+    <t>0056</t>
+  </si>
+  <si>
+    <t>0967433722</t>
+  </si>
+  <si>
+    <t>0057</t>
+  </si>
+  <si>
+    <t>0967433723</t>
+  </si>
+  <si>
+    <t>0058</t>
+  </si>
+  <si>
+    <t>0967433724</t>
+  </si>
+  <si>
+    <t>0059</t>
+  </si>
+  <si>
+    <t>0967433725</t>
+  </si>
+  <si>
+    <t>0060</t>
+  </si>
+  <si>
+    <t>0967433726</t>
+  </si>
+  <si>
+    <t>0061</t>
+  </si>
+  <si>
+    <t>0967433727</t>
+  </si>
+  <si>
+    <t>0062</t>
+  </si>
+  <si>
+    <t>0967433728</t>
+  </si>
+  <si>
+    <t>0063</t>
+  </si>
+  <si>
+    <t>0967433729</t>
+  </si>
+  <si>
+    <t>0064</t>
+  </si>
+  <si>
+    <t>0967433730</t>
+  </si>
+  <si>
+    <t>0065</t>
+  </si>
+  <si>
+    <t>0967433731</t>
+  </si>
+  <si>
+    <t>0066</t>
+  </si>
+  <si>
+    <t>0967433732</t>
+  </si>
+  <si>
+    <t>0067</t>
+  </si>
+  <si>
+    <t>0967433733</t>
+  </si>
+  <si>
+    <t>0068</t>
+  </si>
+  <si>
+    <t>0967433734</t>
+  </si>
+  <si>
+    <t>0069</t>
+  </si>
+  <si>
+    <t>0967433735</t>
+  </si>
+  <si>
+    <t>0070</t>
+  </si>
+  <si>
+    <t>0967433736</t>
+  </si>
+  <si>
+    <t>0071</t>
+  </si>
+  <si>
+    <t>0967433737</t>
+  </si>
+  <si>
+    <t>0072</t>
+  </si>
+  <si>
+    <t>0967433738</t>
+  </si>
+  <si>
+    <t>0073</t>
+  </si>
+  <si>
+    <t>0967433739</t>
+  </si>
+  <si>
+    <t>0074</t>
+  </si>
+  <si>
+    <t>0967433740</t>
+  </si>
+  <si>
+    <t>0075</t>
+  </si>
+  <si>
+    <t>0967433741</t>
+  </si>
+  <si>
+    <t>0076</t>
+  </si>
+  <si>
+    <t>0967433742</t>
+  </si>
+  <si>
+    <t>0077</t>
+  </si>
+  <si>
+    <t>0967433743</t>
+  </si>
+  <si>
+    <t>0078</t>
+  </si>
+  <si>
+    <t>0967433744</t>
+  </si>
+  <si>
+    <t>0079</t>
+  </si>
+  <si>
+    <t>0967433745</t>
+  </si>
+  <si>
+    <t>0080</t>
+  </si>
+  <si>
+    <t>0967433746</t>
+  </si>
+  <si>
+    <t>0081</t>
+  </si>
+  <si>
+    <t>0967433747</t>
+  </si>
+  <si>
+    <t>0082</t>
+  </si>
+  <si>
+    <t>0967433748</t>
+  </si>
+  <si>
+    <t>0083</t>
+  </si>
+  <si>
+    <t>0967433749</t>
+  </si>
+  <si>
+    <t>0084</t>
+  </si>
+  <si>
+    <t>0967433750</t>
+  </si>
+  <si>
+    <t>0085</t>
+  </si>
+  <si>
+    <t>0967433751</t>
+  </si>
+  <si>
+    <t>0086</t>
+  </si>
+  <si>
+    <t>0967433752</t>
+  </si>
+  <si>
+    <t>0087</t>
+  </si>
+  <si>
+    <t>0967433753</t>
+  </si>
+  <si>
+    <t>0088</t>
+  </si>
+  <si>
+    <t>0967433754</t>
+  </si>
+  <si>
+    <t>0089</t>
+  </si>
+  <si>
+    <t>0967433755</t>
+  </si>
+  <si>
+    <t>0090</t>
+  </si>
+  <si>
+    <t>0967433756</t>
+  </si>
+  <si>
+    <t>0091</t>
+  </si>
+  <si>
+    <t>0967433757</t>
+  </si>
+  <si>
+    <t>0092</t>
+  </si>
+  <si>
+    <t>0967433758</t>
+  </si>
+  <si>
+    <t>0093</t>
+  </si>
+  <si>
+    <t>0967433759</t>
+  </si>
+  <si>
+    <t>0094</t>
+  </si>
+  <si>
+    <t>0967433760</t>
+  </si>
+  <si>
+    <t>0095</t>
+  </si>
+  <si>
+    <t>0967433761</t>
+  </si>
+  <si>
+    <t>0096</t>
+  </si>
+  <si>
+    <t>0967433762</t>
+  </si>
+  <si>
+    <t>0097</t>
+  </si>
+  <si>
+    <t>0967433763</t>
+  </si>
+  <si>
+    <t>0098</t>
+  </si>
+  <si>
+    <t>0967433764</t>
+  </si>
+  <si>
+    <t>0099</t>
+  </si>
+  <si>
+    <t>0967433765</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0967433766</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0967433767</t>
+  </si>
+  <si>
+    <t>0102</t>
+  </si>
+  <si>
+    <t>0967433768</t>
+  </si>
+  <si>
+    <t>0103</t>
+  </si>
+  <si>
+    <t>0967433769</t>
+  </si>
+  <si>
+    <t>0104</t>
+  </si>
+  <si>
+    <t>0967433770</t>
+  </si>
+  <si>
+    <t>0105</t>
+  </si>
+  <si>
+    <t>0967433771</t>
+  </si>
+  <si>
+    <t>0106</t>
+  </si>
+  <si>
+    <t>0967433772</t>
+  </si>
+  <si>
+    <t>0107</t>
+  </si>
+  <si>
+    <t>0967433773</t>
+  </si>
+  <si>
+    <t>0108</t>
+  </si>
+  <si>
+    <t>0967433774</t>
+  </si>
+  <si>
+    <t>0109</t>
+  </si>
+  <si>
+    <t>0967433775</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>0967433776</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>0967433777</t>
+  </si>
+  <si>
+    <t>0112</t>
+  </si>
+  <si>
+    <t>0967433778</t>
+  </si>
+  <si>
+    <t>0113</t>
+  </si>
+  <si>
+    <t>0967433779</t>
+  </si>
+  <si>
+    <t>0114</t>
+  </si>
+  <si>
+    <t>0967433780</t>
+  </si>
+  <si>
+    <t>0115</t>
+  </si>
+  <si>
+    <t>0967433781</t>
+  </si>
+  <si>
+    <t>0116</t>
+  </si>
+  <si>
+    <t>0967433782</t>
+  </si>
+  <si>
+    <t>0117</t>
+  </si>
+  <si>
+    <t>0967433783</t>
+  </si>
+  <si>
+    <t>0118</t>
+  </si>
+  <si>
+    <t>0967433784</t>
+  </si>
+  <si>
+    <t>0119</t>
+  </si>
+  <si>
+    <t>0967433785</t>
+  </si>
+  <si>
+    <t>0120</t>
+  </si>
+  <si>
+    <t>0967433786</t>
+  </si>
+  <si>
+    <t>0121</t>
+  </si>
+  <si>
+    <t>0967433787</t>
+  </si>
+  <si>
+    <t>0122</t>
+  </si>
+  <si>
+    <t>0967433788</t>
+  </si>
+  <si>
+    <t>0123</t>
+  </si>
+  <si>
+    <t>0967433789</t>
+  </si>
+  <si>
+    <t>0124</t>
+  </si>
+  <si>
+    <t>0967433790</t>
+  </si>
+  <si>
+    <t>0125</t>
+  </si>
+  <si>
+    <t>0967433791</t>
+  </si>
+  <si>
+    <t>0126</t>
+  </si>
+  <si>
+    <t>0967433792</t>
+  </si>
+  <si>
+    <t>0127</t>
+  </si>
+  <si>
+    <t>0967433793</t>
+  </si>
+  <si>
+    <t>0128</t>
+  </si>
+  <si>
+    <t>0967433794</t>
+  </si>
+  <si>
+    <t>0129</t>
+  </si>
+  <si>
+    <t>0967433795</t>
+  </si>
+  <si>
+    <t>0130</t>
+  </si>
+  <si>
+    <t>0967433796</t>
+  </si>
+  <si>
+    <t>0131</t>
+  </si>
+  <si>
+    <t>0967433797</t>
+  </si>
+  <si>
+    <t>0132</t>
+  </si>
+  <si>
+    <t>0967433798</t>
+  </si>
+  <si>
+    <t>0133</t>
+  </si>
+  <si>
+    <t>0967433799</t>
+  </si>
+  <si>
+    <t>0134</t>
+  </si>
+  <si>
+    <t>0967433800</t>
+  </si>
+  <si>
+    <t>0135</t>
+  </si>
+  <si>
+    <t>0967433801</t>
   </si>
 </sst>
 </file>
@@ -552,18 +1230,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD7B6FC-333F-4140-AAC3-C95901EBD276}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="24.33203125" customWidth="1"/>
+    <col min="1" max="5" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -580,7 +1258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -597,7 +1275,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -614,7 +1292,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -631,7 +1309,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -648,7 +1326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -665,7 +1343,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -682,7 +1360,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -699,7 +1377,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -716,7 +1394,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -733,7 +1411,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -750,7 +1428,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -765,6 +1443,1927 @@
       </c>
       <c r="E12" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1232</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1232</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1233</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1233</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" s="1">
+        <v>1234</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1234</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" s="1">
+        <v>1235</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1235</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1236</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B107" s="1">
+        <v>1236</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B118" s="1">
+        <v>1237</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/SampleExcel/Template.xlsx
+++ b/SampleExcel/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QuaySo\SampleExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B4DFE2-343E-40E3-9C22-09C66DD57F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D5D4FA-0327-4409-B19D-506FDC87A1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E66C60FF-8D5C-4CD2-B734-01935BFE3E6D}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="23085" windowHeight="11940" xr2:uid="{E66C60FF-8D5C-4CD2-B734-01935BFE3E6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="265">
   <si>
     <t>Mã dự thưởng</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>0967433678</t>
-  </si>
-  <si>
-    <t>0967433679</t>
   </si>
   <si>
     <t>0967433680</t>
@@ -1233,7 +1230,7 @@
   <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,45 +1265,37 @@
       <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1314,16 +1303,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1331,16 +1320,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1348,16 +1337,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1365,16 +1354,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1382,16 +1371,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1399,16 +1388,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1416,16 +1405,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1433,1937 +1422,1937 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1">
         <v>1232</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1">
         <v>1232</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="1">
         <v>1233</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="D37" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="D41" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="D43" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44" s="1">
         <v>1233</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="D46" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="D48" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="D49" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D50" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="D51" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="D52" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="D53" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="D54" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B55" s="1">
         <v>1234</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="D56" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="D57" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="D58" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="D59" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="D60" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="D62" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="D63" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="D64" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B65" s="1">
         <v>1234</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="D66" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="D67" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="D68" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="D69" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="D70" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="D71" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="D72" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="D73" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="D74" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="D75" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B76" s="1">
         <v>1235</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="D77" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="D78" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="D79" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="D80" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="D81" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="D82" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="D83" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="D84" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>185</v>
-      </c>
       <c r="D85" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B86" s="1">
         <v>1235</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="D87" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>191</v>
-      </c>
       <c r="D88" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>193</v>
-      </c>
       <c r="D89" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>195</v>
-      </c>
       <c r="D90" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>197</v>
-      </c>
       <c r="D91" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="D92" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="D93" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C94" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="D94" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>205</v>
-      </c>
       <c r="D95" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="D96" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B97" s="1">
         <v>1236</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>211</v>
-      </c>
       <c r="D98" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>213</v>
-      </c>
       <c r="D99" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>215</v>
-      </c>
       <c r="D100" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>217</v>
-      </c>
       <c r="D101" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>219</v>
-      </c>
       <c r="D102" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>221</v>
-      </c>
       <c r="D103" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>223</v>
-      </c>
       <c r="D104" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C105" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>225</v>
-      </c>
       <c r="D105" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>227</v>
-      </c>
       <c r="D106" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B107" s="1">
         <v>1236</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>231</v>
-      </c>
       <c r="D108" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>233</v>
-      </c>
       <c r="D109" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="D110" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>237</v>
-      </c>
       <c r="D111" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>239</v>
-      </c>
       <c r="D112" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>241</v>
-      </c>
       <c r="D113" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>243</v>
-      </c>
       <c r="D114" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C115" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>245</v>
-      </c>
       <c r="D115" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C116" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>247</v>
-      </c>
       <c r="D116" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>249</v>
-      </c>
       <c r="D117" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B118" s="1">
         <v>1237</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>253</v>
-      </c>
       <c r="D119" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="D120" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C121" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>257</v>
-      </c>
       <c r="D121" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>259</v>
-      </c>
       <c r="D122" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C123" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>261</v>
-      </c>
       <c r="D123" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="D124" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>265</v>
-      </c>
       <c r="D125" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
